--- a/Homework/Project/Mutual countries in datasets.xlsx
+++ b/Homework/Project/Mutual countries in datasets.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dawnb\Desktop\Bootcamp\Homework\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86B592D1-C435-4A71-9229-5340515BC6BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEA1683-6996-4FD5-823B-029D44BEB9D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BA1D200C-E57A-438A-B97F-0B26BF2AAA94}"/>
+    <workbookView xWindow="2064" yWindow="7044" windowWidth="17280" windowHeight="5208" xr2:uid="{BA1D200C-E57A-438A-B97F-0B26BF2AAA94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="499">
   <si>
     <t xml:space="preserve"> Afghanistan</t>
   </si>
@@ -590,6 +591,12 @@
     <t>Puerto Rico</t>
   </si>
   <si>
+    <t xml:space="preserve"> Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romania</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Russian Federation</t>
   </si>
   <si>
@@ -837,6 +844,690 @@
   </si>
   <si>
     <t>Romania</t>
+  </si>
+  <si>
+    <t>HDI Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Slovakia</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote DIvoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Bahamas, The</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Congo, Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Congo, Rep.</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Egypt, Arab Rep.</t>
+  </si>
+  <si>
+    <t>Micronesia, Fed. Sts.</t>
+  </si>
+  <si>
+    <t>Gambia, The</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>High income</t>
+  </si>
+  <si>
+    <t>Hong Kong SAR, China</t>
+  </si>
+  <si>
+    <t>Heavily indebted poor countries (HIPC)</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>IBRD only</t>
+  </si>
+  <si>
+    <t>IDA &amp; IBRD total</t>
+  </si>
+  <si>
+    <t>IDA total</t>
+  </si>
+  <si>
+    <t>IDA blend</t>
+  </si>
+  <si>
+    <t>IDA only</t>
+  </si>
+  <si>
+    <t>Not classified</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Rep.</t>
+  </si>
+  <si>
+    <t>Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Korea, Rep.</t>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+  </si>
+  <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>Least developed countries: UN classification</t>
+  </si>
+  <si>
+    <t>Low income</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lower middle income</t>
+  </si>
+  <si>
+    <t>Low &amp; middle income</t>
+  </si>
+  <si>
+    <t>Late-demographic dividend</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Middle income</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>OECD members</t>
+  </si>
+  <si>
+    <t>Other small states</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Pre-demographic dividend</t>
+  </si>
+  <si>
+    <t>Korea, Dem. People’s Rep.</t>
+  </si>
+  <si>
+    <t>Post-demographic dividend</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Small states</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Upper middle income</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Venezuela, RB</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Yemen, Rep.</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Congo (Dem Rep)</t>
+  </si>
+  <si>
+    <t>Congo (Rep)</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Korea (Rep)</t>
+  </si>
+  <si>
+    <t>Micronesia (Fed States)</t>
   </si>
 </sst>
 </file>
@@ -918,7 +1609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -930,6 +1621,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1252,7 +1949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7672A904-1E6B-4446-807B-D1160AE5D494}">
   <dimension ref="A1:D256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A229" sqref="A229"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1261,7 +1960,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1269,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1277,10 +1976,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1288,10 +1987,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1299,10 +1998,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1310,10 +2009,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1321,10 +2020,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1332,10 +2031,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2235,347 +2934,2882 @@
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1378521-2163-48DE-BBC4-23D2BE3C62EE}">
+  <dimension ref="D1:K265"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J126" sqref="J126"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D1" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="2" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="J3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="J9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="J10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="J12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="J13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="J14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="J20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="J21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>288</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="J22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="J23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="J24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="J25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="J26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="J27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="J28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="J29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="J30" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="J31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="J32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="J33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="J34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="J35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="J36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="J37" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="J38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="J39" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" t="s">
+        <v>495</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>494</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="J41" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="J42" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="K43" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="K44" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J45" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J46" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" t="s">
+        <v>430</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="J47" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="J48" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="J50" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="J51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>67</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="J52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="J53" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="J54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J55" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="J56" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="J57" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="J58" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="J59" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="60" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="J60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>82</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="J61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="J62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>87</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="J63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="J64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>89</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="J65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>90</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="J66" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="68" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>93</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="J68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>95</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="J69" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>97</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="J70" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="71" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="J71" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="72" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>99</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="J72" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>100</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="J73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>101</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="J74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>102</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="J75" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="76" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D76" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" t="s">
+        <v>496</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="J76" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>104</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="J77" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="78" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>105</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="J78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>106</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J79" t="s">
+        <v>437</v>
+      </c>
+      <c r="K79" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="80" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>107</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="J80" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="81" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D81" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" t="s">
+        <v>338</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J81" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="82" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>109</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="J82" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="83" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="J83" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>112</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="J84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>113</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="J85" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="86" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>114</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="K86" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="87" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>115</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="J87" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="88" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>116</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="J88" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="89" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>117</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="J89" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="90" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>118</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="J90" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="91" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>119</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="J91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D92" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E92" t="s">
+        <v>213</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J92" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="93" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>122</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="J93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>123</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="J94" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="95" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D95" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E95" t="s">
+        <v>350</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="J95" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="96" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>128</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="K96" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="97" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>129</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="J97" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="98" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>130</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="J98" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="99" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>131</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="J99" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>132</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="J100" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="101" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>133</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="J101" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="102" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>134</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="J102" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="103" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>135</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="J103" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="104" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>138</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="J104" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="105" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>139</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="J105" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="106" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>140</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="J106" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="107" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>141</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="J107" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="108" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>142</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J108" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>143</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="J109" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="110" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>144</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="J110" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="111" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>145</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="J111" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="112" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>146</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="K112" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="113" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>147</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J113" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="114" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D114" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E114" t="s">
+        <v>498</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="J114" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="115" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D115" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E115" t="s">
+        <v>365</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="J115" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="116" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>154</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="J116" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="117" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>155</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="J117" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="118" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>156</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="J118" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="119" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>157</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="J119" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="120" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>158</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="J120" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="121" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>159</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="J121" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="122" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>161</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="J122" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="123" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>162</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="J123" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="124" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>164</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="J124" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="125" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>165</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J125" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="126" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>166</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="K126" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="127" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>167</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="J127" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="128" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>172</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="J128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>173</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="K129" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="130" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>175</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="J130" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="131" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>176</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="J131" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="132" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>177</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="J132" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="133" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>178</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="J133" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="134" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D134" t="s">
+        <v>179</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="J134" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D135" t="s">
+        <v>180</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="J135" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="136" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D136" t="s">
+        <v>181</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="J136" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="137" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D137" t="s">
+        <v>182</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="J137" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="138" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D138" t="s">
+        <v>183</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="J138" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="139" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D139" t="s">
+        <v>184</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="J139" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="140" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>186</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="J140" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="141" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D141" t="s">
+        <v>187</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="J141" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="142" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D142" t="s">
+        <v>188</v>
+      </c>
+      <c r="E142" t="s">
+        <v>388</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="J142" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="143" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D143" t="s">
+        <v>189</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="J143" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="144" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D144" t="s">
+        <v>211</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J144" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="145" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D145" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E145" t="s">
+        <v>456</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="J145" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="146" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>191</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="J146" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="147" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D147" t="s">
+        <v>190</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="J147" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D148" t="s">
+        <v>193</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="J148" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="149" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D149" t="s">
+        <v>194</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="J149" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>195</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="J150" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="151" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D151" t="s">
+        <v>196</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="J151" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="152" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D152" t="s">
+        <v>197</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="J152" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="153" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D153" t="s">
+        <v>198</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="J153" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D154" t="s">
+        <v>199</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="J154" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="155" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D155" t="s">
+        <v>274</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="J155" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="156" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D156" t="s">
+        <v>202</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="J156" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="157" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D157" t="s">
+        <v>203</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="H157" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="J157" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="158" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D158" t="s">
+        <v>205</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="J158" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="159" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D159" t="s">
+        <v>208</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="J159" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="160" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D160" t="s">
+        <v>209</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="J160" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="161" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D161" t="s">
+        <v>210</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="J161" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="162" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D162" t="s">
+        <v>219</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="J162" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="163" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D163" t="s">
+        <v>220</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="J163" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="164" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D164" t="s">
+        <v>222</v>
+      </c>
+      <c r="G164" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="J164" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="165" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D165" t="s">
+        <v>223</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="J165" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="166" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D166" t="s">
+        <v>224</v>
+      </c>
+      <c r="J166" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="167" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D167" t="s">
+        <v>225</v>
+      </c>
+      <c r="J167" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="168" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D168" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E168" t="s">
+        <v>405</v>
+      </c>
+      <c r="J168" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="169" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D169" t="s">
+        <v>228</v>
+      </c>
+      <c r="J169" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="170" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D170" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E170" t="s">
+        <v>170</v>
+      </c>
+      <c r="J170" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D171" t="s">
+        <v>229</v>
+      </c>
+      <c r="J171" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="172" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D172" t="s">
+        <v>230</v>
+      </c>
+      <c r="J172" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="173" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D173" t="s">
+        <v>231</v>
+      </c>
+      <c r="J173" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="174" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D174" t="s">
+        <v>232</v>
+      </c>
+      <c r="J174" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="175" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D175" t="s">
+        <v>233</v>
+      </c>
+      <c r="J175" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="176" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D176" t="s">
+        <v>234</v>
+      </c>
+      <c r="J176" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="177" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D177" t="s">
+        <v>235</v>
+      </c>
+      <c r="J177" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="178" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D178" t="s">
+        <v>238</v>
+      </c>
+      <c r="J178" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="179" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D179" t="s">
+        <v>239</v>
+      </c>
+      <c r="J179" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="180" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D180" t="s">
+        <v>240</v>
+      </c>
+      <c r="J180" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="181" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D181" t="s">
+        <v>241</v>
+      </c>
+      <c r="J181" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="182" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D182" t="s">
+        <v>242</v>
+      </c>
+      <c r="J182" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="183" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D183" t="s">
+        <v>243</v>
+      </c>
+      <c r="J183" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="184" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D184" t="s">
+        <v>244</v>
+      </c>
+      <c r="J184" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="185" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D185" t="s">
+        <v>245</v>
+      </c>
+      <c r="J185" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="186" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D186" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E186" t="s">
+        <v>419</v>
+      </c>
+      <c r="J186" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="187" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D187" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E187" t="s">
+        <v>420</v>
+      </c>
+      <c r="J187" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="188" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D188" t="s">
+        <v>251</v>
+      </c>
+      <c r="J188" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="189" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D189" t="s">
         <v>252</v>
+      </c>
+      <c r="J189" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="190" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D190" t="s">
+        <v>253</v>
+      </c>
+      <c r="J190" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="191" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J191" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="192" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J192" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="193" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J193" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="K193" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="194" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J194" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J195" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="196" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J196" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="197" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J197" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="198" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J198" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="199" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J199" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="200" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J200" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="201" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J201" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="202" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J202" t="s">
+        <v>473</v>
+      </c>
+      <c r="K202" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="203" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J203" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="204" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J204" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J205" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="206" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J206" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="207" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J207" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="208" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J208" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="209" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J209" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="210" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J210" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="211" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J211" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="212" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J212" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="213" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J213" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="214" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J214" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="215" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J215" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="216" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J216" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="217" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J218" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="219" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J219" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="220" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J220" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="221" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J221" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="K221" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="222" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J222" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="223" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J223" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="224" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J224" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="225" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J225" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="226" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J226" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="227" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J227" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="228" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J228" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="229" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J229" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="230" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J230" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="231" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J231" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="232" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J232" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="233" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J233" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="234" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J234" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="235" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J235" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="236" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J236" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="237" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J237" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="238" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J238" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="239" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J239" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="240" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J240" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="241" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J241" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="242" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J242" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="243" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J243" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="244" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J244" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="245" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J245" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="246" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J246" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="247" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J247" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="248" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J248" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="249" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J249" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="250" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J250" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="251" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J251" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="252" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J252" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="253" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J253" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="254" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J254" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="K254" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="255" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J255" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="256" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J256" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="257" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J257" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="258" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J258" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="259" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J259" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="260" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J260" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="261" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J261" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="262" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J262" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="K262" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="263" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J263" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="264" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J264" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="265" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J265" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
